--- a/data/entities/Victoria_2030_adaptation.xlsx
+++ b/data/entities/Victoria_2030_adaptation.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bresch/Documents/_GIT/climada_modules/drought_fire/data/entities/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="766" activeTab="6"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="32060" windowHeight="16960" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
-    <sheet name="damagefunctions" sheetId="2" r:id="rId2"/>
+    <sheet name="damagefunctions" sheetId="8" r:id="rId2"/>
     <sheet name="measures" sheetId="3" r:id="rId3"/>
     <sheet name="discount" sheetId="4" r:id="rId4"/>
     <sheet name="_assets_details" sheetId="5" r:id="rId5"/>
     <sheet name="_measures_details" sheetId="6" r:id="rId6"/>
     <sheet name="_discounting_sheet" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="text_for_excel" localSheetId="0">assets!$J$10:$L$217</definedName>
+    <definedName name="text_for_excel" localSheetId="0">assets!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,6 +42,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ein zufriedener Microsoft Office-Anwender</author>
+    <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -71,7 +83,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the 2-digit peril identifier, e.g. TC for Tropical Cyclone wind, TS for surge, TR for rain, WS for European winter strom, EQ for earthquake. Matches with hazard.peril_ID. If empty, use the damage function irrespective of peril (i.e. the user needs to know which entity to expose to which peril)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>OPTIONAL
+The unit of the intensity, e.g. m/s for wind or MMI for earthquake. Please use SI units wherever possible.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>OPTIONAL
+a free name, only used for annotation. Use only letters,  numbers and spaces, do not start with a letter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>climada_damagefunction_generate(0:5:120,25,1,0.375,'s-shape','TC',0);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,6 +165,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ein zufriedener Microsoft Office-Anwender</author>
+    <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -281,6 +344,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">the 2-digit peril identifier, e.g. TC for Tropical Cyclone wind, TS for surge, TR for rain, WS for European winter strom, EQ for earthquake. Just needs to match with hazard.peril_ID. If AA, use the measure  irrespective of peril (i.e. the user needs to know which entity to expose to which peril)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -346,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="98">
   <si>
     <t>Latitude</t>
   </si>
@@ -673,21 +749,36 @@
   <si>
     <t>Education factor following</t>
   </si>
+  <si>
+    <t>peril_ID</t>
+  </si>
+  <si>
+    <t>Intensity_unit</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
+  <si>
+    <t>bushfire default</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -787,6 +878,22 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -838,7 +945,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -876,12 +983,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -936,6 +1052,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -954,9 +1072,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -966,18 +1081,14 @@
     <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -999,8 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1009,42 +1118,53 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="58" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+  <cellStyles count="60">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Comma 3 2" xfId="59"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
@@ -1069,14 +1189,14 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="58"/>
     <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="8"/>
     <cellStyle name="Percent 3" xfId="9"/>
-    <cellStyle name="Prozent" xfId="7" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1159,7 +1279,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1197,8 +1317,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16824644549762999"/>
-          <c:y val="4.3955955510155603E-2"/>
+          <c:x val="0.16824644549763"/>
+          <c:y val="0.0439559555101556"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1216,10 +1336,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4786729857819899E-2"/>
+          <c:x val="0.0947867298578199"/>
           <c:y val="0.241757755305856"/>
-          <c:w val="0.84834123222748803"/>
-          <c:h val="0.43955955510155598"/>
+          <c:w val="0.848341232227488"/>
+          <c:h val="0.439559555101556"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1264,57 +1384,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$13</c:f>
+              <c:f>damagefunctions!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$2:$C$13</c:f>
+              <c:f>damagefunctions!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
@@ -1348,6 +1471,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,57 +1519,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$13</c:f>
+              <c:f>damagefunctions!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$2:$D$13</c:f>
+              <c:f>damagefunctions!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
@@ -1452,22 +1581,22 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6999999999999995E-2</c:v>
+                  <c:v>0.057</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17700000000000002</c:v>
+                  <c:v>0.177</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.34</c:v>
@@ -1476,6 +1605,9 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1522,90 +1654,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$13</c:f>
+              <c:f>damagefunctions!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$2:$E$13</c:f>
+              <c:f>damagefunctions!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.0001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>0.0002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7099999999999997E-3</c:v>
+                  <c:v>0.00171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0000000000000002E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5400000000000008E-2</c:v>
+                  <c:v>0.0354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4199999999999993E-2</c:v>
+                  <c:v>0.0642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11200000000000002</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15300000000000002</c:v>
+                  <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,11 +1758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97961472"/>
-        <c:axId val="97964032"/>
+        <c:axId val="-1711953344"/>
+        <c:axId val="-1711945504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97961472"/>
+        <c:axId val="-1711953344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,8 +1795,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45734597156398099"/>
-              <c:y val="0.86813012132557399"/>
+              <c:x val="0.457345971563981"/>
+              <c:y val="0.868130121325574"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1698,16 +1836,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97964032"/>
+        <c:crossAx val="-1711945504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97964032"/>
+        <c:axId val="-1711945504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1747,7 +1885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97961472"/>
+        <c:crossAx val="-1711953344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1764,10 +1902,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40995260663507099"/>
-          <c:y val="4.9450449948925099E-2"/>
-          <c:w val="0.49763033175355398"/>
-          <c:h val="9.89008998978501E-2"/>
+          <c:x val="0.409952606635071"/>
+          <c:y val="0.0494504499489251"/>
+          <c:w val="0.497630331753554"/>
+          <c:h val="0.0989008998978501"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1829,7 +1967,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1838,7 +1976,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1877,7 +2015,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.184834123222749"/>
-          <c:y val="4.9450449948925099E-2"/>
+          <c:y val="0.0494504499489251"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1895,10 +2033,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4786729857819899E-2"/>
+          <c:x val="0.0947867298578199"/>
           <c:y val="0.241757755305856"/>
-          <c:w val="0.84834123222748803"/>
-          <c:h val="0.43955955510155598"/>
+          <c:w val="0.848341232227488"/>
+          <c:h val="0.439559555101556"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1943,54 +2081,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$14:$B$22</c:f>
+              <c:f>damagefunctions!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$14:$C$22</c:f>
+              <c:f>damagefunctions!$C$15:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.0001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.01</c:v>
@@ -2008,7 +2146,7 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,57 +2192,57 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$14:$B$22</c:f>
+              <c:f>damagefunctions!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$14:$D$22</c:f>
+              <c:f>damagefunctions!$D$15:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>0.0025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.06</c:v>
@@ -2113,10 +2251,10 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.25</c:v>
@@ -2153,66 +2291,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$14:$B$22</c:f>
+              <c:f>damagefunctions!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$14:$E$22</c:f>
+              <c:f>damagefunctions!$E$15:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>5.0E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>0.00025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8750000000000001E-2</c:v>
+                  <c:v>0.07875</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.19125</c:v>
@@ -2233,11 +2371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100568064"/>
-        <c:axId val="100574336"/>
+        <c:axId val="-1688073424"/>
+        <c:axId val="-1688065328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100568064"/>
+        <c:axId val="-1688073424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,8 +2408,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45734597156398099"/>
-              <c:y val="0.86813012132557399"/>
+              <c:x val="0.457345971563981"/>
+              <c:y val="0.868130121325574"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2311,16 +2449,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100574336"/>
+        <c:crossAx val="-1688065328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100574336"/>
+        <c:axId val="-1688065328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2360,7 +2498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100568064"/>
+        <c:crossAx val="-1688073424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,9 +2516,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.428909952606635"/>
-          <c:y val="6.5933933265233405E-2"/>
-          <c:w val="0.38151658767772501"/>
-          <c:h val="9.89008998978501E-2"/>
+          <c:y val="0.0659339332652334"/>
+          <c:w val="0.381516587677725"/>
+          <c:h val="0.0989008998978501"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2442,7 +2580,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2451,7 +2589,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2490,7 +2628,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.182033201989834"/>
-          <c:y val="4.9180295063093002E-2"/>
+          <c:y val="0.049180295063093"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2508,10 +2646,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6926769890690698E-2"/>
-          <c:y val="0.24043699808623201"/>
-          <c:w val="0.84870025343312105"/>
-          <c:h val="0.44262265556783698"/>
+          <c:x val="0.0969267698906907"/>
+          <c:y val="0.240436998086232"/>
+          <c:w val="0.848700253433121"/>
+          <c:h val="0.442622655567837"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2556,72 +2694,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$23:$B$31</c:f>
+              <c:f>damagefunctions!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$23:$C$31</c:f>
+              <c:f>damagefunctions!$C$24:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0422535211267616E-3</c:v>
+                  <c:v>0.00704225352112676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5087719298245619E-2</c:v>
+                  <c:v>0.0350877192982456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23611111111111113</c:v>
+                  <c:v>0.236111111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,60 +2811,63 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$23:$B$31</c:f>
+              <c:f>damagefunctions!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$23:$D$31</c:f>
+              <c:f>damagefunctions!$D$24:$D$33</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7999999999999996E-3</c:v>
+                  <c:v>0.0048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>0.041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.285</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.45</c:v>
@@ -2732,6 +2879,9 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2766,63 +2916,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$23:$B$31</c:f>
+              <c:f>damagefunctions!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$23:$E$31</c:f>
+              <c:f>damagefunctions!$E$24:$E$33</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.17</c:v>
@@ -2832,6 +2985,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,11 +3002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97859072"/>
-        <c:axId val="97860608"/>
+        <c:axId val="-1687975344"/>
+        <c:axId val="-1687967248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97859072"/>
+        <c:axId val="-1687975344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,8 +3039,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46099317387035799"/>
-              <c:y val="0.86885187944797604"/>
+              <c:x val="0.460993173870358"/>
+              <c:y val="0.868851879447976"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2924,16 +3080,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97860608"/>
+        <c:crossAx val="-1687967248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97860608"/>
+        <c:axId val="-1687967248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2973,7 +3129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97859072"/>
+        <c:crossAx val="-1687975344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2990,10 +3146,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43262436317064401"/>
-          <c:y val="4.9180295063093002E-2"/>
-          <c:w val="0.38061487688783402"/>
-          <c:h val="9.8360590126185907E-2"/>
+          <c:x val="0.432624363170644"/>
+          <c:y val="0.049180295063093"/>
+          <c:w val="0.380614876887834"/>
+          <c:h val="0.0983605901261859"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3055,7 +3211,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3065,20 +3221,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1606" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3097,20 +3253,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1607" name="Chart 4"/>
+        <xdr:cNvPr id="3" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3129,20 +3285,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1608" name="Chart 9"/>
+        <xdr:cNvPr id="4" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3162,8 +3318,489 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="text_for_excel" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="assets"/>
+      <sheetName val="damagefunctions"/>
+      <sheetName val="measures"/>
+      <sheetName val="discount"/>
+      <sheetName val="_assets_details"/>
+      <sheetName val="_measures_details"/>
+      <sheetName val="_discounting_sheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>MDD</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>PAA</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>MDR</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>10</v>
+          </cell>
+          <cell r="C3">
+            <v>0.01</v>
+          </cell>
+          <cell r="D3">
+            <v>0.01</v>
+          </cell>
+          <cell r="E3">
+            <v>1E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>20</v>
+          </cell>
+          <cell r="C4">
+            <v>0.02</v>
+          </cell>
+          <cell r="D4">
+            <v>0.01</v>
+          </cell>
+          <cell r="E4">
+            <v>2.0000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>30</v>
+          </cell>
+          <cell r="C5">
+            <v>0.03</v>
+          </cell>
+          <cell r="D5">
+            <v>5.6999999999999995E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>1.7099999999999997E-3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>40</v>
+          </cell>
+          <cell r="C6">
+            <v>0.1</v>
+          </cell>
+          <cell r="D6">
+            <v>0.1</v>
+          </cell>
+          <cell r="E6">
+            <v>1.0000000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>50</v>
+          </cell>
+          <cell r="C7">
+            <v>0.15</v>
+          </cell>
+          <cell r="D7">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="E7">
+            <v>2.1000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>60</v>
+          </cell>
+          <cell r="C8">
+            <v>0.2</v>
+          </cell>
+          <cell r="D8">
+            <v>0.17700000000000002</v>
+          </cell>
+          <cell r="E8">
+            <v>3.5400000000000008E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>70</v>
+          </cell>
+          <cell r="C9">
+            <v>0.3</v>
+          </cell>
+          <cell r="D9">
+            <v>0.214</v>
+          </cell>
+          <cell r="E9">
+            <v>6.4199999999999993E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>80</v>
+          </cell>
+          <cell r="C10">
+            <v>0.4</v>
+          </cell>
+          <cell r="D10">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="E10">
+            <v>0.11200000000000002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>90</v>
+          </cell>
+          <cell r="C11">
+            <v>0.45</v>
+          </cell>
+          <cell r="D11">
+            <v>0.34</v>
+          </cell>
+          <cell r="E11">
+            <v>0.15300000000000002</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>100</v>
+          </cell>
+          <cell r="C12">
+            <v>0.5</v>
+          </cell>
+          <cell r="D12">
+            <v>0.4</v>
+          </cell>
+          <cell r="E12">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>110</v>
+          </cell>
+          <cell r="C13">
+            <v>0.5</v>
+          </cell>
+          <cell r="D13">
+            <v>0.5</v>
+          </cell>
+          <cell r="E13">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>1700</v>
+          </cell>
+          <cell r="C14">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="D14">
+            <v>0.5</v>
+          </cell>
+          <cell r="E14">
+            <v>0.27500000000000002</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>30</v>
+          </cell>
+          <cell r="C16">
+            <v>1E-4</v>
+          </cell>
+          <cell r="D16">
+            <v>2.5000000000000001E-3</v>
+          </cell>
+          <cell r="E16">
+            <v>2.5000000000000004E-7</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>50</v>
+          </cell>
+          <cell r="C17">
+            <v>1E-3</v>
+          </cell>
+          <cell r="D17">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="E17">
+            <v>5.0000000000000004E-6</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>100</v>
+          </cell>
+          <cell r="C18">
+            <v>0.01</v>
+          </cell>
+          <cell r="D18">
+            <v>2.5000000000000001E-2</v>
+          </cell>
+          <cell r="E18">
+            <v>2.5000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>400</v>
+          </cell>
+          <cell r="C19">
+            <v>0.1</v>
+          </cell>
+          <cell r="D19">
+            <v>0.06</v>
+          </cell>
+          <cell r="E19">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>600</v>
+          </cell>
+          <cell r="C20">
+            <v>0.25</v>
+          </cell>
+          <cell r="D20">
+            <v>0.125</v>
+          </cell>
+          <cell r="E20">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>800</v>
+          </cell>
+          <cell r="C21">
+            <v>0.45</v>
+          </cell>
+          <cell r="D21">
+            <v>0.17499999999999999</v>
+          </cell>
+          <cell r="E21">
+            <v>7.8750000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>1200</v>
+          </cell>
+          <cell r="C22">
+            <v>0.85</v>
+          </cell>
+          <cell r="D22">
+            <v>0.22500000000000001</v>
+          </cell>
+          <cell r="E22">
+            <v>0.19125</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>1700</v>
+          </cell>
+          <cell r="C23">
+            <v>1</v>
+          </cell>
+          <cell r="D23">
+            <v>0.25</v>
+          </cell>
+          <cell r="E23">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>4.7999999999999996E-3</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>30</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>4.1000000000000002E-2</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>40</v>
+          </cell>
+          <cell r="C27">
+            <v>7.0422535211267616E-3</v>
+          </cell>
+          <cell r="D27">
+            <v>0.14199999999999999</v>
+          </cell>
+          <cell r="E27">
+            <v>1E-3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>50</v>
+          </cell>
+          <cell r="C28">
+            <v>3.5087719298245619E-2</v>
+          </cell>
+          <cell r="D28">
+            <v>0.28499999999999998</v>
+          </cell>
+          <cell r="E28">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>60</v>
+          </cell>
+          <cell r="C29">
+            <v>9.9999999999999992E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>0.45</v>
+          </cell>
+          <cell r="E29">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>70</v>
+          </cell>
+          <cell r="C30">
+            <v>0.23611111111111113</v>
+          </cell>
+          <cell r="D30">
+            <v>0.72</v>
+          </cell>
+          <cell r="E30">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>80</v>
+          </cell>
+          <cell r="C31">
+            <v>0.47499999999999998</v>
+          </cell>
+          <cell r="D31">
+            <v>0.8</v>
+          </cell>
+          <cell r="E31">
+            <v>0.38</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>100</v>
+          </cell>
+          <cell r="C32">
+            <v>0.5</v>
+          </cell>
+          <cell r="D32">
+            <v>0.9</v>
+          </cell>
+          <cell r="E32">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>1700</v>
+          </cell>
+          <cell r="C33">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="D33">
+            <v>0.9</v>
+          </cell>
+          <cell r="E33">
+            <v>0.49500000000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3488,29 +4125,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H1" sqref="H1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="7.42578125" style="7" customWidth="1"/>
-    <col min="11" max="12" width="7.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="10.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3526,15 +4159,14 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>-36.625</v>
       </c>
@@ -3555,14 +4187,11 @@
       <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="41">
         <v>295000000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="48"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -3583,13 +4212,11 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="41">
         <v>14000000</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>-35.208300000000001</v>
       </c>
@@ -3610,13 +4237,11 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="41">
         <v>14000000</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>-35.375</v>
       </c>
@@ -3637,13 +4262,11 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="41">
         <v>597000000</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>-34.625</v>
       </c>
@@ -3664,13 +4287,11 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="41">
         <v>14000000</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>-36.125</v>
       </c>
@@ -3691,13 +4312,11 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="41">
         <v>14000000</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>-35.458300000000001</v>
       </c>
@@ -3718,13 +4337,11 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="41">
         <v>85000000</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>-37.625</v>
       </c>
@@ -3745,13 +4362,11 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="41">
         <v>85000000</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -3772,13 +4387,11 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="41">
         <v>14000000</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -3799,13 +4412,11 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="41">
         <v>597000000</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>-36.125</v>
       </c>
@@ -3826,13 +4437,11 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="41">
         <v>14000000</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>-37.625</v>
       </c>
@@ -3853,13 +4462,11 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="41">
         <v>179000000</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -3880,13 +4487,11 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="41">
         <v>15213000000.000002</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -3907,13 +4512,11 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="41">
         <v>14000000</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -3934,13 +4537,11 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="41">
         <v>85000000</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -3961,13 +4562,11 @@
       <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="41">
         <v>85000000</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>-37.625</v>
       </c>
@@ -3988,13 +4587,11 @@
       <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="41">
         <v>5765000000</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -4015,13 +4612,11 @@
       <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="41">
         <v>27985000000.000004</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -4042,13 +4637,11 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="41">
         <v>85000000</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>-37.625</v>
       </c>
@@ -4069,13 +4662,11 @@
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="41">
         <v>14000000</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -4096,13 +4687,11 @@
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="41">
         <v>179000000</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>-36.625</v>
       </c>
@@ -4123,13 +4712,11 @@
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="41">
         <v>85000000</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -4150,13 +4737,11 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="41">
         <v>14000000</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>-37.375</v>
       </c>
@@ -4177,13 +4762,11 @@
       <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="41">
         <v>14000000</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -4204,13 +4787,11 @@
       <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="41">
         <v>14000000</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -4231,13 +4812,11 @@
       <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="41">
         <v>14000000</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>-35.625</v>
       </c>
@@ -4258,13 +4837,11 @@
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="41">
         <v>1474000000</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -4285,13 +4862,11 @@
       <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="41">
         <v>14000000</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>-37.625</v>
       </c>
@@ -4312,13 +4887,11 @@
       <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="41">
         <v>85000000</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -4339,13 +4912,11 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="41">
         <v>1474000000</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>-36.875</v>
       </c>
@@ -4366,13 +4937,11 @@
       <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="41">
         <v>14000000</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -4393,13 +4962,11 @@
       <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -4420,13 +4987,11 @@
       <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="41">
         <v>85000000</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>-35.791699999999999</v>
       </c>
@@ -4447,13 +5012,11 @@
       <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="41">
         <v>85000000</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -4474,13 +5037,11 @@
       <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="41">
         <v>14000000</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>-37.875</v>
       </c>
@@ -4501,13 +5062,11 @@
       <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="41">
         <v>14000000</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -4528,13 +5087,11 @@
       <c r="F38" s="7">
         <v>1</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="41">
         <v>14000000</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>-37.625</v>
       </c>
@@ -4555,13 +5112,11 @@
       <c r="F39" s="7">
         <v>1</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="41">
         <v>14000000</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -4582,13 +5137,11 @@
       <c r="F40" s="7">
         <v>1</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="41">
         <v>16927000000</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -4609,13 +5162,11 @@
       <c r="F41" s="7">
         <v>1</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="41">
         <v>3473000000</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="1:13">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -4636,13 +5187,11 @@
       <c r="F42" s="7">
         <v>1</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="41">
         <v>179000000</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="M42" s="7"/>
-    </row>
-    <row r="43" spans="1:13">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>-37.875</v>
       </c>
@@ -4663,13 +5212,11 @@
       <c r="F43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="41">
         <v>14000000</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="1:13">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>-37.625</v>
       </c>
@@ -4690,13 +5237,11 @@
       <c r="F44" s="7">
         <v>1</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="41">
         <v>14000000</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="M44" s="7"/>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -4717,13 +5262,11 @@
       <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="41">
         <v>14000000</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -4744,13 +5287,11 @@
       <c r="F46" s="7">
         <v>1</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="41">
         <v>990000000</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="M46" s="7"/>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -4771,13 +5312,11 @@
       <c r="F47" s="7">
         <v>1</v>
       </c>
-      <c r="G47" s="48">
+      <c r="G47" s="41">
         <v>14000000</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="M47" s="7"/>
-    </row>
-    <row r="48" spans="1:13">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -4798,13 +5337,11 @@
       <c r="F48" s="7">
         <v>1</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="41">
         <v>85000000</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="M48" s="7"/>
-    </row>
-    <row r="49" spans="1:13">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -4825,13 +5362,11 @@
       <c r="F49" s="7">
         <v>1</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="41">
         <v>14000000</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" spans="1:13">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>-37.875</v>
       </c>
@@ -4852,13 +5387,11 @@
       <c r="F50" s="7">
         <v>1</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="41">
         <v>14000000</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" spans="1:13">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -4879,13 +5412,11 @@
       <c r="F51" s="7">
         <v>1</v>
       </c>
-      <c r="G51" s="48">
+      <c r="G51" s="41">
         <v>14000000</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="M51" s="7"/>
-    </row>
-    <row r="52" spans="1:13">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -4906,13 +5437,11 @@
       <c r="F52" s="7">
         <v>1</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="41">
         <v>1474000000</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>-37.625</v>
       </c>
@@ -4933,13 +5462,11 @@
       <c r="F53" s="7">
         <v>1</v>
       </c>
-      <c r="G53" s="48">
+      <c r="G53" s="41">
         <v>990000000</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -4960,13 +5487,11 @@
       <c r="F54" s="7">
         <v>1</v>
       </c>
-      <c r="G54" s="48">
+      <c r="G54" s="41">
         <v>14000000</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="M54" s="7"/>
-    </row>
-    <row r="55" spans="1:13">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -4987,13 +5512,11 @@
       <c r="F55" s="7">
         <v>1</v>
       </c>
-      <c r="G55" s="48">
+      <c r="G55" s="41">
         <v>14000000</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="M55" s="7"/>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -5014,13 +5537,11 @@
       <c r="F56" s="7">
         <v>1</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="41">
         <v>85000000</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="M56" s="7"/>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>-37.875</v>
       </c>
@@ -5041,13 +5562,11 @@
       <c r="F57" s="7">
         <v>1</v>
       </c>
-      <c r="G57" s="48">
+      <c r="G57" s="41">
         <v>85000000</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="M57" s="7"/>
-    </row>
-    <row r="58" spans="1:13">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5068,13 +5587,11 @@
       <c r="F58" s="7">
         <v>1</v>
       </c>
-      <c r="G58" s="48">
+      <c r="G58" s="41">
         <v>295000000</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="M58" s="7"/>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5095,13 +5612,11 @@
       <c r="F59" s="7">
         <v>1</v>
       </c>
-      <c r="G59" s="48">
+      <c r="G59" s="41">
         <v>5765000000</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="M59" s="7"/>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>-37.625</v>
       </c>
@@ -5122,13 +5637,11 @@
       <c r="F60" s="7">
         <v>1</v>
       </c>
-      <c r="G60" s="48">
+      <c r="G60" s="41">
         <v>85000000</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="M60" s="7"/>
-    </row>
-    <row r="61" spans="1:13">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5149,13 +5662,11 @@
       <c r="F61" s="7">
         <v>1</v>
       </c>
-      <c r="G61" s="48">
+      <c r="G61" s="41">
         <v>14000000</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="M61" s="7"/>
-    </row>
-    <row r="62" spans="1:13">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>-37.375</v>
       </c>
@@ -5176,13 +5687,11 @@
       <c r="F62" s="7">
         <v>1</v>
       </c>
-      <c r="G62" s="48">
+      <c r="G62" s="41">
         <v>990000000</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="M62" s="7"/>
-    </row>
-    <row r="63" spans="1:13">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -5203,13 +5712,11 @@
       <c r="F63" s="7">
         <v>1</v>
       </c>
-      <c r="G63" s="48">
+      <c r="G63" s="41">
         <v>990000000</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="M63" s="7"/>
-    </row>
-    <row r="64" spans="1:13">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>-37.875</v>
       </c>
@@ -5230,13 +5737,11 @@
       <c r="F64" s="7">
         <v>1</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="41">
         <v>14390000000</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="M64" s="7"/>
-    </row>
-    <row r="65" spans="1:13">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5257,13 +5762,11 @@
       <c r="F65" s="7">
         <v>1</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="41">
         <v>295000000</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="M65" s="7"/>
-    </row>
-    <row r="66" spans="1:13">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5284,13 +5787,11 @@
       <c r="F66" s="7">
         <v>1</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="41">
         <v>9931000000</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="M66" s="7"/>
-    </row>
-    <row r="67" spans="1:13">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <v>-37.625</v>
       </c>
@@ -5311,13 +5812,11 @@
       <c r="F67" s="7">
         <v>1</v>
       </c>
-      <c r="G67" s="48">
+      <c r="G67" s="41">
         <v>179000000</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="M67" s="7"/>
-    </row>
-    <row r="68" spans="1:13">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5338,13 +5837,11 @@
       <c r="F68" s="7">
         <v>1</v>
       </c>
-      <c r="G68" s="48">
+      <c r="G68" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="M68" s="7"/>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5365,13 +5862,11 @@
       <c r="F69" s="7">
         <v>1</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="1:13">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -5392,13 +5887,11 @@
       <c r="F70" s="7">
         <v>1</v>
       </c>
-      <c r="G70" s="48">
+      <c r="G70" s="41">
         <v>1221000000</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="M70" s="7"/>
-    </row>
-    <row r="71" spans="1:13">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="7">
         <v>-37.875</v>
       </c>
@@ -5419,13 +5912,11 @@
       <c r="F71" s="7">
         <v>1</v>
       </c>
-      <c r="G71" s="48">
+      <c r="G71" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="M71" s="7"/>
-    </row>
-    <row r="72" spans="1:13">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5446,13 +5937,11 @@
       <c r="F72" s="7">
         <v>1</v>
       </c>
-      <c r="G72" s="48">
+      <c r="G72" s="41">
         <v>3885000000</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="M72" s="7"/>
-    </row>
-    <row r="73" spans="1:13">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5473,13 +5962,11 @@
       <c r="F73" s="7">
         <v>1</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G73" s="41">
         <v>3473000000</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="M73" s="7"/>
-    </row>
-    <row r="74" spans="1:13">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="7">
         <v>-37.625</v>
       </c>
@@ -5500,13 +5987,11 @@
       <c r="F74" s="7">
         <v>1</v>
       </c>
-      <c r="G74" s="48">
+      <c r="G74" s="41">
         <v>2371000000</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="1:13">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5527,13 +6012,11 @@
       <c r="F75" s="7">
         <v>1</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="41">
         <v>597000000</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="M75" s="7"/>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5554,13 +6037,11 @@
       <c r="F76" s="7">
         <v>1</v>
       </c>
-      <c r="G76" s="48">
+      <c r="G76" s="41">
         <v>295000000</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="M76" s="7"/>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -5581,13 +6062,11 @@
       <c r="F77" s="7">
         <v>1</v>
       </c>
-      <c r="G77" s="48">
+      <c r="G77" s="41">
         <v>85000000</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="M77" s="7"/>
-    </row>
-    <row r="78" spans="1:13">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="7">
         <v>-36.375</v>
       </c>
@@ -5608,13 +6087,11 @@
       <c r="F78" s="7">
         <v>1</v>
       </c>
-      <c r="G78" s="48">
+      <c r="G78" s="41">
         <v>2371000000</v>
       </c>
-      <c r="H78" s="7"/>
-      <c r="M78" s="7"/>
-    </row>
-    <row r="79" spans="1:13">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="7">
         <v>-36.125</v>
       </c>
@@ -5635,13 +6112,11 @@
       <c r="F79" s="7">
         <v>1</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="41">
         <v>179000000</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="7">
         <v>-37.875</v>
       </c>
@@ -5662,13 +6137,11 @@
       <c r="F80" s="7">
         <v>1</v>
       </c>
-      <c r="G80" s="48">
+      <c r="G80" s="41">
         <v>39083000000</v>
       </c>
-      <c r="H80" s="7"/>
-      <c r="M80" s="7"/>
-    </row>
-    <row r="81" spans="1:13">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5689,13 +6162,11 @@
       <c r="F81" s="7">
         <v>1</v>
       </c>
-      <c r="G81" s="48">
+      <c r="G81" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="M81" s="7"/>
-    </row>
-    <row r="82" spans="1:13">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5716,13 +6187,11 @@
       <c r="F82" s="7">
         <v>1</v>
       </c>
-      <c r="G82" s="48">
+      <c r="G82" s="41">
         <v>40430000000</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="M82" s="7"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="7">
         <v>-37.625</v>
       </c>
@@ -5743,13 +6212,11 @@
       <c r="F83" s="7">
         <v>1</v>
       </c>
-      <c r="G83" s="48">
+      <c r="G83" s="41">
         <v>990000000</v>
       </c>
-      <c r="H83" s="7"/>
-      <c r="M83" s="7"/>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5770,13 +6237,11 @@
       <c r="F84" s="7">
         <v>1</v>
       </c>
-      <c r="G84" s="48">
+      <c r="G84" s="41">
         <v>85000000</v>
       </c>
-      <c r="H84" s="7"/>
-      <c r="M84" s="7"/>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5797,13 +6262,11 @@
       <c r="F85" s="7">
         <v>1</v>
       </c>
-      <c r="G85" s="48">
+      <c r="G85" s="41">
         <v>14000000</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="M85" s="7"/>
-    </row>
-    <row r="86" spans="1:13">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="7">
         <v>-36.125</v>
       </c>
@@ -5824,13 +6287,11 @@
       <c r="F86" s="7">
         <v>1</v>
       </c>
-      <c r="G86" s="48">
+      <c r="G86" s="41">
         <v>3885000000</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="M86" s="7"/>
-    </row>
-    <row r="87" spans="1:13">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="7">
         <v>-37.875</v>
       </c>
@@ -5851,13 +6312,11 @@
       <c r="F87" s="7">
         <v>1</v>
       </c>
-      <c r="G87" s="48">
+      <c r="G87" s="41">
         <v>24695999999.999996</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="M87" s="7"/>
-    </row>
-    <row r="88" spans="1:13">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5878,13 +6337,11 @@
       <c r="F88" s="7">
         <v>1</v>
       </c>
-      <c r="G88" s="48">
+      <c r="G88" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="M88" s="7"/>
-    </row>
-    <row r="89" spans="1:13">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5905,13 +6362,11 @@
       <c r="F89" s="7">
         <v>1</v>
       </c>
-      <c r="G89" s="48">
+      <c r="G89" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H89" s="7"/>
-      <c r="M89" s="7"/>
-    </row>
-    <row r="90" spans="1:13">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="7">
         <v>-37.625</v>
       </c>
@@ -5932,13 +6387,11 @@
       <c r="F90" s="7">
         <v>1</v>
       </c>
-      <c r="G90" s="48">
+      <c r="G90" s="41">
         <v>6292000000</v>
       </c>
-      <c r="H90" s="7"/>
-      <c r="M90" s="7"/>
-    </row>
-    <row r="91" spans="1:13">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5959,13 +6412,11 @@
       <c r="F91" s="7">
         <v>1</v>
       </c>
-      <c r="G91" s="48">
+      <c r="G91" s="41">
         <v>179000000</v>
       </c>
-      <c r="H91" s="7"/>
-      <c r="M91" s="7"/>
-    </row>
-    <row r="92" spans="1:13">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -5986,13 +6437,11 @@
       <c r="F92" s="7">
         <v>1</v>
       </c>
-      <c r="G92" s="48">
+      <c r="G92" s="41">
         <v>14000000</v>
       </c>
-      <c r="H92" s="7"/>
-      <c r="M92" s="7"/>
-    </row>
-    <row r="93" spans="1:13">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="7">
         <v>-37.125</v>
       </c>
@@ -6013,13 +6462,11 @@
       <c r="F93" s="7">
         <v>1</v>
       </c>
-      <c r="G93" s="48">
+      <c r="G93" s="41">
         <v>85000000</v>
       </c>
-      <c r="H93" s="7"/>
-      <c r="M93" s="7"/>
-    </row>
-    <row r="94" spans="1:13">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="7">
         <v>-34.541699999999999</v>
       </c>
@@ -6040,13 +6487,11 @@
       <c r="F94" s="7">
         <v>1</v>
       </c>
-      <c r="G94" s="48">
+      <c r="G94" s="41">
         <v>14000000</v>
       </c>
-      <c r="H94" s="7"/>
-      <c r="M94" s="7"/>
-    </row>
-    <row r="95" spans="1:13">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6067,13 +6512,11 @@
       <c r="F95" s="7">
         <v>1</v>
       </c>
-      <c r="G95" s="48">
+      <c r="G95" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H95" s="7"/>
-      <c r="M95" s="7"/>
-    </row>
-    <row r="96" spans="1:13">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6094,13 +6537,11 @@
       <c r="F96" s="7">
         <v>1</v>
       </c>
-      <c r="G96" s="48">
+      <c r="G96" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="M96" s="7"/>
-    </row>
-    <row r="97" spans="1:13">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="7">
         <v>-37.625</v>
       </c>
@@ -6121,13 +6562,11 @@
       <c r="F97" s="7">
         <v>1</v>
       </c>
-      <c r="G97" s="48">
+      <c r="G97" s="41">
         <v>39083000000</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="M97" s="7"/>
-    </row>
-    <row r="98" spans="1:13">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -6148,13 +6587,11 @@
       <c r="F98" s="7">
         <v>1</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="41">
         <v>3083000000</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="M98" s="7"/>
-    </row>
-    <row r="99" spans="1:13">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -6175,13 +6612,11 @@
       <c r="F99" s="7">
         <v>1</v>
       </c>
-      <c r="G99" s="48">
+      <c r="G99" s="41">
         <v>85000000</v>
       </c>
-      <c r="H99" s="7"/>
-      <c r="M99" s="7"/>
-    </row>
-    <row r="100" spans="1:13">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="7">
         <v>-37.375</v>
       </c>
@@ -6202,13 +6637,11 @@
       <c r="F100" s="7">
         <v>1</v>
       </c>
-      <c r="G100" s="48">
+      <c r="G100" s="41">
         <v>14000000</v>
       </c>
-      <c r="H100" s="7"/>
-      <c r="M100" s="7"/>
-    </row>
-    <row r="101" spans="1:13">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -6229,13 +6662,11 @@
       <c r="F101" s="7">
         <v>1</v>
       </c>
-      <c r="G101" s="48">
+      <c r="G101" s="41">
         <v>4780000000</v>
       </c>
-      <c r="H101" s="7"/>
-      <c r="M101" s="7"/>
-    </row>
-    <row r="102" spans="1:13">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -6256,13 +6687,11 @@
       <c r="F102" s="7">
         <v>1</v>
       </c>
-      <c r="G102" s="48">
+      <c r="G102" s="41">
         <v>14000000</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="M102" s="7"/>
-    </row>
-    <row r="103" spans="1:13">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -6283,13 +6712,11 @@
       <c r="F103" s="7">
         <v>1</v>
       </c>
-      <c r="G103" s="48">
+      <c r="G103" s="41">
         <v>14000000</v>
       </c>
-      <c r="H103" s="7"/>
-      <c r="M103" s="7"/>
-    </row>
-    <row r="104" spans="1:13">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="7">
         <v>-35.541699999999999</v>
       </c>
@@ -6310,13 +6737,11 @@
       <c r="F104" s="7">
         <v>1</v>
       </c>
-      <c r="G104" s="48">
+      <c r="G104" s="41">
         <v>12058000000</v>
       </c>
-      <c r="H104" s="7"/>
-      <c r="M104" s="7"/>
-    </row>
-    <row r="105" spans="1:13">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -6337,13 +6762,11 @@
       <c r="F105" s="7">
         <v>1</v>
       </c>
-      <c r="G105" s="48">
+      <c r="G105" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="M105" s="7"/>
-    </row>
-    <row r="106" spans="1:13">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="7">
         <v>-37.875</v>
       </c>
@@ -6364,13 +6787,11 @@
       <c r="F106" s="7">
         <v>1</v>
       </c>
-      <c r="G106" s="48">
+      <c r="G106" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="M106" s="7"/>
-    </row>
-    <row r="107" spans="1:13">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6391,13 +6812,11 @@
       <c r="F107" s="7">
         <v>1</v>
       </c>
-      <c r="G107" s="48">
+      <c r="G107" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H107" s="7"/>
-      <c r="M107" s="7"/>
-    </row>
-    <row r="108" spans="1:13">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6418,13 +6837,11 @@
       <c r="F108" s="7">
         <v>1</v>
       </c>
-      <c r="G108" s="48">
+      <c r="G108" s="41">
         <v>40430000000</v>
       </c>
-      <c r="H108" s="7"/>
-      <c r="M108" s="7"/>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="7">
         <v>-37.625</v>
       </c>
@@ -6445,13 +6862,11 @@
       <c r="F109" s="7">
         <v>1</v>
       </c>
-      <c r="G109" s="48">
+      <c r="G109" s="41">
         <v>19670000000</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="M109" s="7"/>
-    </row>
-    <row r="110" spans="1:13">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -6472,13 +6887,11 @@
       <c r="F110" s="7">
         <v>1</v>
       </c>
-      <c r="G110" s="48">
+      <c r="G110" s="41">
         <v>179000000</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="M110" s="7"/>
-    </row>
-    <row r="111" spans="1:13">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -6499,13 +6912,11 @@
       <c r="F111" s="7">
         <v>1</v>
       </c>
-      <c r="G111" s="48">
+      <c r="G111" s="41">
         <v>14000000</v>
       </c>
-      <c r="H111" s="7"/>
-      <c r="M111" s="7"/>
-    </row>
-    <row r="112" spans="1:13">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="7">
         <v>-37.375</v>
       </c>
@@ -6526,13 +6937,11 @@
       <c r="F112" s="7">
         <v>1</v>
       </c>
-      <c r="G112" s="48">
+      <c r="G112" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="M112" s="7"/>
-    </row>
-    <row r="113" spans="1:13">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -6553,13 +6962,11 @@
       <c r="F113" s="7">
         <v>1</v>
       </c>
-      <c r="G113" s="48">
+      <c r="G113" s="41">
         <v>14000000</v>
       </c>
-      <c r="H113" s="7"/>
-      <c r="M113" s="7"/>
-    </row>
-    <row r="114" spans="1:13">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -6580,13 +6987,11 @@
       <c r="F114" s="7">
         <v>1</v>
       </c>
-      <c r="G114" s="48">
+      <c r="G114" s="41">
         <v>597000000</v>
       </c>
-      <c r="H114" s="7"/>
-      <c r="M114" s="7"/>
-    </row>
-    <row r="115" spans="1:13">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -6607,13 +7012,11 @@
       <c r="F115" s="7">
         <v>1</v>
       </c>
-      <c r="G115" s="48">
+      <c r="G115" s="41">
         <v>597000000</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="M115" s="7"/>
-    </row>
-    <row r="116" spans="1:13">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -6634,13 +7037,11 @@
       <c r="F116" s="7">
         <v>1</v>
       </c>
-      <c r="G116" s="48">
+      <c r="G116" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H116" s="7"/>
-      <c r="M116" s="7"/>
-    </row>
-    <row r="117" spans="1:13">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="7">
         <v>-37.875</v>
       </c>
@@ -6661,13 +7062,11 @@
       <c r="F117" s="7">
         <v>1</v>
       </c>
-      <c r="G117" s="48">
+      <c r="G117" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H117" s="7"/>
-      <c r="M117" s="7"/>
-    </row>
-    <row r="118" spans="1:13">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6688,13 +7087,11 @@
       <c r="F118" s="7">
         <v>1</v>
       </c>
-      <c r="G118" s="48">
+      <c r="G118" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H118" s="7"/>
-      <c r="M118" s="7"/>
-    </row>
-    <row r="119" spans="1:13">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6715,13 +7112,11 @@
       <c r="F119" s="7">
         <v>1</v>
       </c>
-      <c r="G119" s="48">
+      <c r="G119" s="41">
         <v>39083000000</v>
       </c>
-      <c r="H119" s="7"/>
-      <c r="M119" s="7"/>
-    </row>
-    <row r="120" spans="1:13">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="7">
         <v>-37.625</v>
       </c>
@@ -6742,13 +7137,11 @@
       <c r="F120" s="7">
         <v>1</v>
       </c>
-      <c r="G120" s="48">
+      <c r="G120" s="41">
         <v>13590000000</v>
       </c>
-      <c r="H120" s="7"/>
-      <c r="M120" s="7"/>
-    </row>
-    <row r="121" spans="1:13">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -6769,13 +7162,11 @@
       <c r="F121" s="7">
         <v>1</v>
       </c>
-      <c r="G121" s="48">
+      <c r="G121" s="41">
         <v>597000000</v>
       </c>
-      <c r="H121" s="7"/>
-      <c r="M121" s="7"/>
-    </row>
-    <row r="122" spans="1:13">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -6796,13 +7187,11 @@
       <c r="F122" s="7">
         <v>1</v>
       </c>
-      <c r="G122" s="48">
+      <c r="G122" s="41">
         <v>14000000</v>
       </c>
-      <c r="H122" s="7"/>
-      <c r="M122" s="7"/>
-    </row>
-    <row r="123" spans="1:13">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -6823,13 +7212,11 @@
       <c r="F123" s="7">
         <v>1</v>
       </c>
-      <c r="G123" s="48">
+      <c r="G123" s="41">
         <v>2371000000</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="M123" s="7"/>
-    </row>
-    <row r="124" spans="1:13">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -6850,13 +7237,11 @@
       <c r="F124" s="7">
         <v>1</v>
       </c>
-      <c r="G124" s="48">
+      <c r="G124" s="41">
         <v>14000000</v>
       </c>
-      <c r="H124" s="7"/>
-      <c r="M124" s="7"/>
-    </row>
-    <row r="125" spans="1:13">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="7">
         <v>-36.375</v>
       </c>
@@ -6877,13 +7262,11 @@
       <c r="F125" s="7">
         <v>1</v>
       </c>
-      <c r="G125" s="48">
+      <c r="G125" s="41">
         <v>14000000</v>
       </c>
-      <c r="H125" s="7"/>
-      <c r="M125" s="7"/>
-    </row>
-    <row r="126" spans="1:13">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -6904,13 +7287,11 @@
       <c r="F126" s="7">
         <v>1</v>
       </c>
-      <c r="G126" s="48">
+      <c r="G126" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H126" s="7"/>
-      <c r="M126" s="7"/>
-    </row>
-    <row r="127" spans="1:13">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="7">
         <v>-37.875</v>
       </c>
@@ -6931,13 +7312,11 @@
       <c r="F127" s="7">
         <v>1</v>
       </c>
-      <c r="G127" s="48">
+      <c r="G127" s="41">
         <v>41799000000</v>
       </c>
-      <c r="H127" s="7"/>
-      <c r="M127" s="7"/>
-    </row>
-    <row r="128" spans="1:13">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6958,13 +7337,11 @@
       <c r="F128" s="7">
         <v>1</v>
       </c>
-      <c r="G128" s="48">
+      <c r="G128" s="41">
         <v>33922000000</v>
       </c>
-      <c r="H128" s="7"/>
-      <c r="M128" s="7"/>
-    </row>
-    <row r="129" spans="1:13">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6985,13 +7362,11 @@
       <c r="F129" s="7">
         <v>1</v>
       </c>
-      <c r="G129" s="48">
+      <c r="G129" s="41">
         <v>3473000000</v>
       </c>
-      <c r="H129" s="7"/>
-      <c r="M129" s="7"/>
-    </row>
-    <row r="130" spans="1:13">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="7">
         <v>-37.625</v>
       </c>
@@ -7012,13 +7387,11 @@
       <c r="F130" s="7">
         <v>1</v>
       </c>
-      <c r="G130" s="48">
+      <c r="G130" s="41">
         <v>990000000</v>
       </c>
-      <c r="H130" s="7"/>
-      <c r="M130" s="7"/>
-    </row>
-    <row r="131" spans="1:13">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -7039,13 +7412,11 @@
       <c r="F131" s="7">
         <v>1</v>
       </c>
-      <c r="G131" s="48">
+      <c r="G131" s="41">
         <v>14000000</v>
       </c>
-      <c r="H131" s="7"/>
-      <c r="M131" s="7"/>
-    </row>
-    <row r="132" spans="1:13">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="7">
         <v>-36.958300000000001</v>
       </c>
@@ -7066,13 +7437,11 @@
       <c r="F132" s="7">
         <v>1</v>
       </c>
-      <c r="G132" s="48">
+      <c r="G132" s="41">
         <v>14000000</v>
       </c>
-      <c r="H132" s="7"/>
-      <c r="M132" s="7"/>
-    </row>
-    <row r="133" spans="1:13">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -7093,13 +7462,11 @@
       <c r="F133" s="7">
         <v>1</v>
       </c>
-      <c r="G133" s="48">
+      <c r="G133" s="41">
         <v>295000000</v>
       </c>
-      <c r="H133" s="7"/>
-      <c r="M133" s="7"/>
-    </row>
-    <row r="134" spans="1:13">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="7">
         <v>-36.625</v>
       </c>
@@ -7120,13 +7487,11 @@
       <c r="F134" s="7">
         <v>1</v>
       </c>
-      <c r="G134" s="48">
+      <c r="G134" s="41">
         <v>14000000</v>
       </c>
-      <c r="H134" s="7"/>
-      <c r="M134" s="7"/>
-    </row>
-    <row r="135" spans="1:13">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7147,13 +7512,11 @@
       <c r="F135" s="7">
         <v>1</v>
       </c>
-      <c r="G135" s="48">
+      <c r="G135" s="41">
         <v>295000000</v>
       </c>
-      <c r="H135" s="7"/>
-      <c r="M135" s="7"/>
-    </row>
-    <row r="136" spans="1:13">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -7174,13 +7537,11 @@
       <c r="F136" s="7">
         <v>1</v>
       </c>
-      <c r="G136" s="48">
+      <c r="G136" s="41">
         <v>179000000</v>
       </c>
-      <c r="H136" s="7"/>
-      <c r="M136" s="7"/>
-    </row>
-    <row r="137" spans="1:13">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7201,13 +7562,11 @@
       <c r="F137" s="7">
         <v>1</v>
       </c>
-      <c r="G137" s="48">
+      <c r="G137" s="41">
         <v>10617000000</v>
       </c>
-      <c r="H137" s="7"/>
-      <c r="M137" s="7"/>
-    </row>
-    <row r="138" spans="1:13">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="7">
         <v>-37.875</v>
       </c>
@@ -7228,13 +7587,11 @@
       <c r="F138" s="7">
         <v>1</v>
       </c>
-      <c r="G138" s="48">
+      <c r="G138" s="41">
         <v>40430000000</v>
       </c>
-      <c r="H138" s="7"/>
-      <c r="M138" s="7"/>
-    </row>
-    <row r="139" spans="1:13">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7255,13 +7612,11 @@
       <c r="F139" s="7">
         <v>1</v>
       </c>
-      <c r="G139" s="48">
+      <c r="G139" s="41">
         <v>39083000000</v>
       </c>
-      <c r="H139" s="7"/>
-      <c r="M139" s="7"/>
-    </row>
-    <row r="140" spans="1:13">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -7282,13 +7637,11 @@
       <c r="F140" s="7">
         <v>1</v>
       </c>
-      <c r="G140" s="48">
+      <c r="G140" s="41">
         <v>597000000</v>
       </c>
-      <c r="H140" s="7"/>
-      <c r="M140" s="7"/>
-    </row>
-    <row r="141" spans="1:13">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="7">
         <v>-37.625</v>
       </c>
@@ -7309,13 +7662,11 @@
       <c r="F141" s="7">
         <v>1</v>
       </c>
-      <c r="G141" s="48">
+      <c r="G141" s="41">
         <v>85000000</v>
       </c>
-      <c r="H141" s="7"/>
-      <c r="M141" s="7"/>
-    </row>
-    <row r="142" spans="1:13">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -7336,13 +7687,11 @@
       <c r="F142" s="7">
         <v>1</v>
       </c>
-      <c r="G142" s="48">
+      <c r="G142" s="41">
         <v>14000000</v>
       </c>
-      <c r="H142" s="7"/>
-      <c r="M142" s="7"/>
-    </row>
-    <row r="143" spans="1:13">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -7363,13 +7712,11 @@
       <c r="F143" s="7">
         <v>1</v>
       </c>
-      <c r="G143" s="48">
+      <c r="G143" s="41">
         <v>14000000</v>
       </c>
-      <c r="H143" s="7"/>
-      <c r="M143" s="7"/>
-    </row>
-    <row r="144" spans="1:13">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7390,13 +7737,11 @@
       <c r="F144" s="7">
         <v>1</v>
       </c>
-      <c r="G144" s="48">
+      <c r="G144" s="41">
         <v>14000000</v>
       </c>
-      <c r="H144" s="7"/>
-      <c r="M144" s="7"/>
-    </row>
-    <row r="145" spans="1:13">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="7">
         <v>-36.375</v>
       </c>
@@ -7417,13 +7762,11 @@
       <c r="F145" s="7">
         <v>1</v>
       </c>
-      <c r="G145" s="48">
+      <c r="G145" s="41">
         <v>14000000</v>
       </c>
-      <c r="H145" s="7"/>
-      <c r="M145" s="7"/>
-    </row>
-    <row r="146" spans="1:13">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7444,13 +7787,11 @@
       <c r="F146" s="7">
         <v>1</v>
       </c>
-      <c r="G146" s="48">
+      <c r="G146" s="41">
         <v>782000000</v>
       </c>
-      <c r="H146" s="7"/>
-      <c r="M146" s="7"/>
-    </row>
-    <row r="147" spans="1:13">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="7">
         <v>-37.875</v>
       </c>
@@ -7471,13 +7812,11 @@
       <c r="F147" s="7">
         <v>1</v>
       </c>
-      <c r="G147" s="48">
+      <c r="G147" s="41">
         <v>1750000000</v>
       </c>
-      <c r="H147" s="7"/>
-      <c r="M147" s="7"/>
-    </row>
-    <row r="148" spans="1:13">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7498,13 +7837,11 @@
       <c r="F148" s="7">
         <v>1</v>
       </c>
-      <c r="G148" s="48">
+      <c r="G148" s="41">
         <v>17819000000</v>
       </c>
-      <c r="H148" s="7"/>
-      <c r="M148" s="7"/>
-    </row>
-    <row r="149" spans="1:13">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -7525,13 +7862,11 @@
       <c r="F149" s="7">
         <v>1</v>
       </c>
-      <c r="G149" s="48">
+      <c r="G149" s="41">
         <v>597000000</v>
       </c>
-      <c r="H149" s="7"/>
-      <c r="M149" s="7"/>
-    </row>
-    <row r="150" spans="1:13">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="7">
         <v>-37.625</v>
       </c>
@@ -7552,13 +7887,11 @@
       <c r="F150" s="7">
         <v>1</v>
       </c>
-      <c r="G150" s="48">
+      <c r="G150" s="41">
         <v>179000000</v>
       </c>
-      <c r="H150" s="7"/>
-      <c r="M150" s="7"/>
-    </row>
-    <row r="151" spans="1:13">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -7579,13 +7912,11 @@
       <c r="F151" s="7">
         <v>1</v>
       </c>
-      <c r="G151" s="48">
+      <c r="G151" s="41">
         <v>85000000</v>
       </c>
-      <c r="H151" s="7"/>
-      <c r="M151" s="7"/>
-    </row>
-    <row r="152" spans="1:13">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7606,13 +7937,11 @@
       <c r="F152" s="7">
         <v>1</v>
       </c>
-      <c r="G152" s="48">
+      <c r="G152" s="41">
         <v>295000000</v>
       </c>
-      <c r="H152" s="7"/>
-      <c r="M152" s="7"/>
-    </row>
-    <row r="153" spans="1:13">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="7">
         <v>-36.375</v>
       </c>
@@ -7633,13 +7962,11 @@
       <c r="F153" s="7">
         <v>1</v>
       </c>
-      <c r="G153" s="48">
+      <c r="G153" s="41">
         <v>10617000000</v>
       </c>
-      <c r="H153" s="7"/>
-      <c r="M153" s="7"/>
-    </row>
-    <row r="154" spans="1:13">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7660,13 +7987,11 @@
       <c r="F154" s="7">
         <v>1</v>
       </c>
-      <c r="G154" s="48">
+      <c r="G154" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H154" s="7"/>
-      <c r="M154" s="7"/>
-    </row>
-    <row r="155" spans="1:13">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="7">
         <v>-37.875</v>
       </c>
@@ -7687,13 +8012,11 @@
       <c r="F155" s="7">
         <v>1</v>
       </c>
-      <c r="G155" s="48">
+      <c r="G155" s="41">
         <v>179000000</v>
       </c>
-      <c r="H155" s="7"/>
-      <c r="M155" s="7"/>
-    </row>
-    <row r="156" spans="1:13">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7714,13 +8037,11 @@
       <c r="F156" s="7">
         <v>1</v>
       </c>
-      <c r="G156" s="48">
+      <c r="G156" s="41">
         <v>1221000000</v>
       </c>
-      <c r="H156" s="7"/>
-      <c r="M156" s="7"/>
-    </row>
-    <row r="157" spans="1:13">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -7741,13 +8062,11 @@
       <c r="F157" s="7">
         <v>1</v>
       </c>
-      <c r="G157" s="48">
+      <c r="G157" s="41">
         <v>85000000</v>
       </c>
-      <c r="H157" s="7"/>
-      <c r="M157" s="7"/>
-    </row>
-    <row r="158" spans="1:13">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="7">
         <v>-37.625</v>
       </c>
@@ -7768,13 +8087,11 @@
       <c r="F158" s="7">
         <v>1</v>
       </c>
-      <c r="G158" s="48">
+      <c r="G158" s="41">
         <v>14000000</v>
       </c>
-      <c r="H158" s="7"/>
-      <c r="M158" s="7"/>
-    </row>
-    <row r="159" spans="1:13">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -7795,13 +8112,11 @@
       <c r="F159" s="7">
         <v>1</v>
       </c>
-      <c r="G159" s="48">
+      <c r="G159" s="41">
         <v>85000000</v>
       </c>
-      <c r="H159" s="7"/>
-      <c r="M159" s="7"/>
-    </row>
-    <row r="160" spans="1:13">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7822,13 +8137,11 @@
       <c r="F160" s="7">
         <v>1</v>
       </c>
-      <c r="G160" s="48">
+      <c r="G160" s="41">
         <v>14000000</v>
       </c>
-      <c r="H160" s="7"/>
-      <c r="M160" s="7"/>
-    </row>
-    <row r="161" spans="1:13">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="7">
         <v>-36.375</v>
       </c>
@@ -7849,13 +8162,11 @@
       <c r="F161" s="7">
         <v>1</v>
       </c>
-      <c r="G161" s="48">
+      <c r="G161" s="41">
         <v>5261000000</v>
       </c>
-      <c r="H161" s="7"/>
-      <c r="M161" s="7"/>
-    </row>
-    <row r="162" spans="1:13">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -7876,13 +8187,11 @@
       <c r="F162" s="7">
         <v>1</v>
       </c>
-      <c r="G162" s="48">
+      <c r="G162" s="41">
         <v>14000000</v>
       </c>
-      <c r="H162" s="7"/>
-      <c r="M162" s="7"/>
-    </row>
-    <row r="163" spans="1:13">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="7">
         <v>-36.125</v>
       </c>
@@ -7903,13 +8212,11 @@
       <c r="F163" s="7">
         <v>1</v>
       </c>
-      <c r="G163" s="48">
+      <c r="G163" s="41">
         <v>85000000</v>
       </c>
-      <c r="H163" s="7"/>
-      <c r="M163" s="7"/>
-    </row>
-    <row r="164" spans="1:13">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7930,13 +8237,11 @@
       <c r="F164" s="7">
         <v>1</v>
       </c>
-      <c r="G164" s="48">
+      <c r="G164" s="41">
         <v>179000000</v>
       </c>
-      <c r="H164" s="7"/>
-      <c r="M164" s="7"/>
-    </row>
-    <row r="165" spans="1:13">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="7">
         <v>-37.875</v>
       </c>
@@ -7957,13 +8262,11 @@
       <c r="F165" s="7">
         <v>1</v>
       </c>
-      <c r="G165" s="48">
+      <c r="G165" s="41">
         <v>14000000</v>
       </c>
-      <c r="H165" s="7"/>
-      <c r="M165" s="7"/>
-    </row>
-    <row r="166" spans="1:13">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7984,13 +8287,11 @@
       <c r="F166" s="7">
         <v>1</v>
       </c>
-      <c r="G166" s="48">
+      <c r="G166" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H166" s="7"/>
-      <c r="M166" s="7"/>
-    </row>
-    <row r="167" spans="1:13">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -8011,13 +8312,11 @@
       <c r="F167" s="7">
         <v>1</v>
       </c>
-      <c r="G167" s="48">
+      <c r="G167" s="41">
         <v>14000000</v>
       </c>
-      <c r="H167" s="7"/>
-      <c r="M167" s="7"/>
-    </row>
-    <row r="168" spans="1:13">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="7">
         <v>-37.625</v>
       </c>
@@ -8038,13 +8337,11 @@
       <c r="F168" s="7">
         <v>1</v>
       </c>
-      <c r="G168" s="48">
+      <c r="G168" s="41">
         <v>14000000</v>
       </c>
-      <c r="H168" s="7"/>
-      <c r="M168" s="7"/>
-    </row>
-    <row r="169" spans="1:13">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="7">
         <v>-35.791699999999999</v>
       </c>
@@ -8065,13 +8362,11 @@
       <c r="F169" s="7">
         <v>1</v>
       </c>
-      <c r="G169" s="48">
+      <c r="G169" s="41">
         <v>14000000</v>
       </c>
-      <c r="H169" s="7"/>
-      <c r="M169" s="7"/>
-    </row>
-    <row r="170" spans="1:13">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="7">
         <v>-37.875</v>
       </c>
@@ -8092,13 +8387,11 @@
       <c r="F170" s="7">
         <v>1</v>
       </c>
-      <c r="G170" s="48">
+      <c r="G170" s="41">
         <v>14000000</v>
       </c>
-      <c r="H170" s="7"/>
-      <c r="M170" s="7"/>
-    </row>
-    <row r="171" spans="1:13">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -8119,13 +8412,11 @@
       <c r="F171" s="7">
         <v>1</v>
       </c>
-      <c r="G171" s="48">
+      <c r="G171" s="41">
         <v>990000000</v>
       </c>
-      <c r="H171" s="7"/>
-      <c r="M171" s="7"/>
-    </row>
-    <row r="172" spans="1:13">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8146,13 +8437,11 @@
       <c r="F172" s="7">
         <v>1</v>
       </c>
-      <c r="G172" s="48">
+      <c r="G172" s="41">
         <v>14000000</v>
       </c>
-      <c r="H172" s="7"/>
-      <c r="M172" s="7"/>
-    </row>
-    <row r="173" spans="1:13">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -8173,13 +8462,11 @@
       <c r="F173" s="7">
         <v>1</v>
       </c>
-      <c r="G173" s="48">
+      <c r="G173" s="41">
         <v>597000000</v>
       </c>
-      <c r="H173" s="7"/>
-      <c r="M173" s="7"/>
-    </row>
-    <row r="174" spans="1:13">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="7">
         <v>-35.375</v>
       </c>
@@ -8200,13 +8487,11 @@
       <c r="F174" s="7">
         <v>1</v>
       </c>
-      <c r="G174" s="48">
+      <c r="G174" s="41">
         <v>179000000</v>
       </c>
-      <c r="H174" s="7"/>
-      <c r="M174" s="7"/>
-    </row>
-    <row r="175" spans="1:13">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -8227,13 +8512,11 @@
       <c r="F175" s="7">
         <v>1</v>
       </c>
-      <c r="G175" s="48">
+      <c r="G175" s="41">
         <v>14000000</v>
       </c>
-      <c r="H175" s="7"/>
-      <c r="M175" s="7"/>
-    </row>
-    <row r="176" spans="1:13">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="7">
         <v>-34.791699999999999</v>
       </c>
@@ -8254,13 +8537,11 @@
       <c r="F176" s="7">
         <v>1</v>
       </c>
-      <c r="G176" s="48">
+      <c r="G176" s="41">
         <v>14000000</v>
       </c>
-      <c r="H176" s="7"/>
-      <c r="M176" s="7"/>
-    </row>
-    <row r="177" spans="1:13">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="7">
         <v>-36.541699999999999</v>
       </c>
@@ -8281,13 +8562,11 @@
       <c r="F177" s="7">
         <v>1</v>
       </c>
-      <c r="G177" s="48">
+      <c r="G177" s="41">
         <v>990000000</v>
       </c>
-      <c r="H177" s="7"/>
-      <c r="M177" s="7"/>
-    </row>
-    <row r="178" spans="1:13">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="7">
         <v>-36.541699999999999</v>
       </c>
@@ -8308,13 +8587,11 @@
       <c r="F178" s="7">
         <v>1</v>
       </c>
-      <c r="G178" s="48">
+      <c r="G178" s="41">
         <v>295000000</v>
       </c>
-      <c r="H178" s="7"/>
-      <c r="M178" s="7"/>
-    </row>
-    <row r="179" spans="1:13">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8335,13 +8612,11 @@
       <c r="F179" s="7">
         <v>1</v>
       </c>
-      <c r="G179" s="48">
+      <c r="G179" s="41">
         <v>179000000</v>
       </c>
-      <c r="H179" s="7"/>
-      <c r="M179" s="7"/>
-    </row>
-    <row r="180" spans="1:13">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8362,13 +8637,11 @@
       <c r="F180" s="7">
         <v>1</v>
       </c>
-      <c r="G180" s="48">
+      <c r="G180" s="41">
         <v>14000000</v>
       </c>
-      <c r="H180" s="7"/>
-      <c r="M180" s="7"/>
-    </row>
-    <row r="181" spans="1:13">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="7">
         <v>-34.375</v>
       </c>
@@ -8389,13 +8662,11 @@
       <c r="F181" s="7">
         <v>1</v>
       </c>
-      <c r="G181" s="48">
+      <c r="G181" s="41">
         <v>179000000</v>
       </c>
-      <c r="H181" s="7"/>
-      <c r="M181" s="7"/>
-    </row>
-    <row r="182" spans="1:13">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="7">
         <v>-34.291699999999999</v>
       </c>
@@ -8416,13 +8687,11 @@
       <c r="F182" s="7">
         <v>1</v>
       </c>
-      <c r="G182" s="48">
+      <c r="G182" s="41">
         <v>31479000000</v>
       </c>
-      <c r="H182" s="7"/>
-      <c r="M182" s="7"/>
-    </row>
-    <row r="183" spans="1:13">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -8443,13 +8712,11 @@
       <c r="F183" s="7">
         <v>1</v>
       </c>
-      <c r="G183" s="48">
+      <c r="G183" s="41">
         <v>85000000</v>
       </c>
-      <c r="H183" s="7"/>
-      <c r="M183" s="7"/>
-    </row>
-    <row r="184" spans="1:13">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="7">
         <v>-34.291699999999999</v>
       </c>
@@ -8470,13 +8737,11 @@
       <c r="F184" s="7">
         <v>1</v>
       </c>
-      <c r="G184" s="48">
+      <c r="G184" s="41">
         <v>295000000</v>
       </c>
-      <c r="H184" s="7"/>
-      <c r="M184" s="7"/>
-    </row>
-    <row r="185" spans="1:13">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -8497,13 +8762,11 @@
       <c r="F185" s="7">
         <v>1</v>
       </c>
-      <c r="G185" s="48">
+      <c r="G185" s="41">
         <v>14000000</v>
       </c>
-      <c r="H185" s="7"/>
-      <c r="M185" s="7"/>
-    </row>
-    <row r="186" spans="1:13">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="7">
         <v>-36.375</v>
       </c>
@@ -8524,13 +8787,11 @@
       <c r="F186" s="7">
         <v>1</v>
       </c>
-      <c r="G186" s="48">
+      <c r="G186" s="41">
         <v>8626000000</v>
       </c>
-      <c r="H186" s="7"/>
-      <c r="M186" s="7"/>
-    </row>
-    <row r="187" spans="1:13">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -8551,13 +8812,11 @@
       <c r="F187" s="7">
         <v>1</v>
       </c>
-      <c r="G187" s="48">
+      <c r="G187" s="41">
         <v>14000000</v>
       </c>
-      <c r="H187" s="7"/>
-      <c r="M187" s="7"/>
-    </row>
-    <row r="188" spans="1:13">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="7">
         <v>-36.375</v>
       </c>
@@ -8578,13 +8837,11 @@
       <c r="F188" s="7">
         <v>1</v>
       </c>
-      <c r="G188" s="48">
+      <c r="G188" s="41">
         <v>14000000</v>
       </c>
-      <c r="H188" s="7"/>
-      <c r="M188" s="7"/>
-    </row>
-    <row r="189" spans="1:13">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8605,13 +8862,11 @@
       <c r="F189" s="7">
         <v>1</v>
       </c>
-      <c r="G189" s="48">
+      <c r="G189" s="41">
         <v>85000000</v>
       </c>
-      <c r="H189" s="7"/>
-      <c r="M189" s="7"/>
-    </row>
-    <row r="190" spans="1:13">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8632,13 +8887,11 @@
       <c r="F190" s="7">
         <v>1</v>
       </c>
-      <c r="G190" s="48">
+      <c r="G190" s="41">
         <v>14000000</v>
       </c>
-      <c r="H190" s="7"/>
-      <c r="M190" s="7"/>
-    </row>
-    <row r="191" spans="1:13">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="7">
         <v>-34.541699999999999</v>
       </c>
@@ -8659,13 +8912,11 @@
       <c r="F191" s="7">
         <v>1</v>
       </c>
-      <c r="G191" s="48">
+      <c r="G191" s="41">
         <v>2049000000</v>
       </c>
-      <c r="H191" s="7"/>
-      <c r="M191" s="7"/>
-    </row>
-    <row r="192" spans="1:13">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="7">
         <v>-37.125</v>
       </c>
@@ -8686,13 +8937,11 @@
       <c r="F192" s="7">
         <v>1</v>
       </c>
-      <c r="G192" s="48">
+      <c r="G192" s="41">
         <v>85000000</v>
       </c>
-      <c r="H192" s="7"/>
-      <c r="M192" s="7"/>
-    </row>
-    <row r="193" spans="1:13">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -8713,13 +8962,11 @@
       <c r="F193" s="7">
         <v>1</v>
       </c>
-      <c r="G193" s="48">
+      <c r="G193" s="41">
         <v>14000000</v>
       </c>
-      <c r="H193" s="7"/>
-      <c r="M193" s="7"/>
-    </row>
-    <row r="194" spans="1:13">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8740,13 +8987,11 @@
       <c r="F194" s="7">
         <v>1</v>
       </c>
-      <c r="G194" s="48">
+      <c r="G194" s="41">
         <v>295000000</v>
       </c>
-      <c r="H194" s="7"/>
-      <c r="M194" s="7"/>
-    </row>
-    <row r="195" spans="1:13">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8767,13 +9012,11 @@
       <c r="F195" s="7">
         <v>1</v>
       </c>
-      <c r="G195" s="48">
+      <c r="G195" s="41">
         <v>14000000</v>
       </c>
-      <c r="H195" s="7"/>
-      <c r="M195" s="7"/>
-    </row>
-    <row r="196" spans="1:13">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="7">
         <v>-36.541699999999999</v>
       </c>
@@ -8794,13 +9037,11 @@
       <c r="F196" s="7">
         <v>1</v>
       </c>
-      <c r="G196" s="48">
+      <c r="G196" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H196" s="7"/>
-      <c r="M196" s="7"/>
-    </row>
-    <row r="197" spans="1:13">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="7">
         <v>-36.375</v>
       </c>
@@ -8821,13 +9062,11 @@
       <c r="F197" s="7">
         <v>1</v>
       </c>
-      <c r="G197" s="48">
+      <c r="G197" s="41">
         <v>434999999.99999994</v>
       </c>
-      <c r="H197" s="7"/>
-      <c r="M197" s="7"/>
-    </row>
-    <row r="198" spans="1:13">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="7">
         <v>-36.125</v>
       </c>
@@ -8848,13 +9087,11 @@
       <c r="F198" s="7">
         <v>1</v>
       </c>
-      <c r="G198" s="48">
+      <c r="G198" s="41">
         <v>179000000</v>
       </c>
-      <c r="H198" s="7"/>
-      <c r="M198" s="7"/>
-    </row>
-    <row r="199" spans="1:13">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="7">
         <v>-35.208300000000001</v>
       </c>
@@ -8875,13 +9112,11 @@
       <c r="F199" s="7">
         <v>1</v>
       </c>
-      <c r="G199" s="48">
+      <c r="G199" s="41">
         <v>14000000</v>
       </c>
-      <c r="H199" s="7"/>
-      <c r="M199" s="7"/>
-    </row>
-    <row r="200" spans="1:13">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -8902,13 +9137,11 @@
       <c r="F200" s="7">
         <v>1</v>
       </c>
-      <c r="G200" s="48">
+      <c r="G200" s="41">
         <v>85000000</v>
       </c>
-      <c r="H200" s="7"/>
-      <c r="M200" s="7"/>
-    </row>
-    <row r="201" spans="1:13">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="7">
         <v>-36.208300000000001</v>
       </c>
@@ -8929,13 +9162,11 @@
       <c r="F201" s="7">
         <v>1</v>
       </c>
-      <c r="G201" s="48">
+      <c r="G201" s="41">
         <v>14000000</v>
       </c>
-      <c r="H201" s="7"/>
-      <c r="M201" s="7"/>
-    </row>
-    <row r="202" spans="1:13">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="7">
         <v>-36.125</v>
       </c>
@@ -8956,13 +9187,11 @@
       <c r="F202" s="7">
         <v>1</v>
       </c>
-      <c r="G202" s="48">
+      <c r="G202" s="41">
         <v>40430000000</v>
       </c>
-      <c r="H202" s="7"/>
-      <c r="M202" s="7"/>
-    </row>
-    <row r="203" spans="1:13">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8983,13 +9212,11 @@
       <c r="F203" s="7">
         <v>1</v>
       </c>
-      <c r="G203" s="48">
+      <c r="G203" s="41">
         <v>85000000</v>
       </c>
-      <c r="H203" s="7"/>
-      <c r="M203" s="7"/>
-    </row>
-    <row r="204" spans="1:13">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -9010,13 +9237,11 @@
       <c r="F204" s="7">
         <v>1</v>
       </c>
-      <c r="G204" s="48">
+      <c r="G204" s="41">
         <v>179000000</v>
       </c>
-      <c r="H204" s="7"/>
-      <c r="M204" s="7"/>
-    </row>
-    <row r="205" spans="1:13">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -9037,13 +9262,11 @@
       <c r="F205" s="7">
         <v>1</v>
       </c>
-      <c r="G205" s="48">
+      <c r="G205" s="41">
         <v>597000000</v>
       </c>
-      <c r="H205" s="7"/>
-      <c r="M205" s="7"/>
-    </row>
-    <row r="206" spans="1:13">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -9064,13 +9287,11 @@
       <c r="F206" s="7">
         <v>1</v>
       </c>
-      <c r="G206" s="48">
+      <c r="G206" s="41">
         <v>179000000</v>
       </c>
-      <c r="H206" s="7"/>
-      <c r="M206" s="7"/>
-    </row>
-    <row r="207" spans="1:13">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="7">
         <v>-36.208300000000001</v>
       </c>
@@ -9091,13 +9312,11 @@
       <c r="F207" s="7">
         <v>1</v>
       </c>
-      <c r="G207" s="48">
+      <c r="G207" s="41">
         <v>85000000</v>
       </c>
-      <c r="H207" s="7"/>
-      <c r="M207" s="7"/>
-    </row>
-    <row r="208" spans="1:13">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="7">
         <v>-36.125</v>
       </c>
@@ -9118,13 +9337,11 @@
       <c r="F208" s="7">
         <v>1</v>
       </c>
-      <c r="G208" s="48">
+      <c r="G208" s="41">
         <v>597000000</v>
       </c>
-      <c r="H208" s="7"/>
-      <c r="M208" s="7"/>
-    </row>
-    <row r="209" spans="1:13">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -9145,591 +9362,923 @@
       <c r="F209" s="7">
         <v>1</v>
       </c>
-      <c r="G209" s="48">
+      <c r="G209" s="41">
         <v>27985000000.000004</v>
       </c>
-      <c r="H209" s="7"/>
-      <c r="M209" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12" style="16" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="17">
+      <c r="F1" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="59">
         <v>2</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <f t="shared" ref="E2:E13" si="0">C2*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17">
+      <c r="B2" s="59">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60">
+        <v>0</v>
+      </c>
+      <c r="D2" s="60">
+        <v>0</v>
+      </c>
+      <c r="E2" s="60">
+        <f t="shared" ref="E2:E14" si="0">C2*D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="59">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="59">
         <v>10</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="60">
         <v>0.01</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="60">
         <v>0.01</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="60">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="F3" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="59">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="59">
         <v>20</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="60">
         <v>0.02</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="60">
         <v>0.01</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="60">
         <f t="shared" si="0"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17">
+      <c r="F4" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="59">
         <v>2</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="59">
         <v>30</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="60">
         <v>0.03</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="60">
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="60">
         <f t="shared" si="0"/>
         <v>1.7099999999999997E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17">
+      <c r="F5" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="59">
         <v>2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="59">
         <v>40</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="60">
         <v>0.1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="60">
         <v>0.1</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="60">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17">
+      <c r="F6" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="59">
         <v>50</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="60">
         <v>0.15</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="60">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="60">
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17">
+      <c r="F7" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="59">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="59">
         <v>60</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="60">
         <v>0.2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="60">
         <v>0.17700000000000002</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="60">
         <f t="shared" si="0"/>
         <v>3.5400000000000008E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17">
+      <c r="F8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="59">
         <v>2</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="59">
         <v>70</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="60">
         <v>0.3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="60">
         <v>0.214</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="60">
         <f t="shared" si="0"/>
         <v>6.4199999999999993E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17">
+      <c r="F9" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="59">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="59">
         <v>80</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="60">
         <v>0.4</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="60">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="60">
         <f t="shared" si="0"/>
         <v>0.11200000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17">
+      <c r="F10" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="59">
         <v>2</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="59">
         <v>90</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="60">
         <v>0.45</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="60">
         <v>0.34</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="60">
         <f t="shared" si="0"/>
         <v>0.15300000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17">
+      <c r="F11" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="59">
         <v>2</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="59">
         <v>100</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="60">
         <v>0.5</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="60">
         <v>0.4</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="60">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="17">
+      <c r="F12" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="59">
         <v>2</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="59">
         <v>110</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="60">
         <v>0.5</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="60">
         <v>0.5</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="60">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="18">
-        <v>1</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="F13" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="59">
+        <v>2</v>
+      </c>
+      <c r="B14" s="59">
+        <v>1700</v>
+      </c>
+      <c r="C14" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="60">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="61">
+        <v>1</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0</v>
+      </c>
+      <c r="C15" s="62">
+        <v>0</v>
+      </c>
+      <c r="D15" s="62">
+        <v>0</v>
+      </c>
+      <c r="E15" s="62">
+        <f>C15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="61">
+        <v>1</v>
+      </c>
+      <c r="B16" s="61">
         <v>30</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C16" s="62">
         <v>1E-4</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D16" s="62">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="18">
-        <v>1</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="E16" s="62">
+        <f t="shared" ref="E16:E23" si="1">C16*D16</f>
+        <v>2.5000000000000004E-7</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="61">
+        <v>1</v>
+      </c>
+      <c r="B17" s="61">
         <v>50</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C17" s="62">
         <v>1E-3</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D17" s="62">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="32">
-        <f>C16*D16</f>
+      <c r="E17" s="62">
+        <f t="shared" si="1"/>
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="F17" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="61">
+        <v>1</v>
+      </c>
+      <c r="B18" s="61">
         <v>100</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C18" s="62">
         <v>0.01</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D18" s="62">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E17" s="32">
-        <f t="shared" ref="E17:E22" si="1">C17*D17</f>
+      <c r="E18" s="62">
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="F18" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="61">
+        <v>1</v>
+      </c>
+      <c r="B19" s="61">
         <v>400</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C19" s="62">
         <v>0.1</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D19" s="62">
         <v>0.06</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E19" s="62">
         <f t="shared" si="1"/>
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18">
-        <v>1</v>
-      </c>
-      <c r="B19" s="18">
+      <c r="F19" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="61">
+        <v>1</v>
+      </c>
+      <c r="B20" s="61">
         <v>600</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C20" s="62">
         <v>0.25</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D20" s="62">
         <v>0.125</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E20" s="62">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="18">
-        <v>1</v>
-      </c>
-      <c r="B20" s="18">
+      <c r="F20" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="61">
+        <v>1</v>
+      </c>
+      <c r="B21" s="61">
         <v>800</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C21" s="62">
         <v>0.45</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D21" s="62">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E21" s="62">
         <f t="shared" si="1"/>
         <v>7.8750000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18">
-        <v>1</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="F21" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="61">
+        <v>1</v>
+      </c>
+      <c r="B22" s="61">
         <v>1200</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C22" s="62">
         <v>0.85</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D22" s="62">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E22" s="62">
         <f t="shared" si="1"/>
         <v>0.19125</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="18">
-        <v>1</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="F22" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="61">
+        <v>1</v>
+      </c>
+      <c r="B23" s="61">
         <v>1700</v>
       </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="C23" s="62">
+        <v>1</v>
+      </c>
+      <c r="D23" s="62">
         <v>0.25</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E23" s="62">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="17">
+      <c r="F23" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="59">
         <v>3</v>
       </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="17">
+      <c r="B24" s="59">
+        <v>0</v>
+      </c>
+      <c r="C24" s="60">
+        <v>0</v>
+      </c>
+      <c r="D24" s="60">
+        <v>0</v>
+      </c>
+      <c r="E24" s="63">
+        <f>C24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="59">
         <v>3</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B25" s="59">
         <v>20</v>
       </c>
-      <c r="C24" s="17">
-        <f>E24/D24</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="33">
+      <c r="C25" s="60">
+        <v>0</v>
+      </c>
+      <c r="D25" s="60">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E24" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="17">
+      <c r="E25" s="63">
+        <f t="shared" ref="E25:E33" si="2">C25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="59">
         <v>3</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B26" s="59">
         <v>30</v>
       </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="33">
+      <c r="C26" s="60">
+        <v>0</v>
+      </c>
+      <c r="D26" s="60">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="17">
+      <c r="E26" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="59">
         <v>3</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B27" s="59">
         <v>40</v>
       </c>
-      <c r="C26" s="17">
-        <f t="shared" ref="C26:C31" si="2">E26/D26</f>
+      <c r="C27" s="60">
         <v>7.0422535211267616E-3</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D27" s="60">
         <v>0.14199999999999999</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E27" s="63">
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="17">
+      <c r="F27" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="59">
         <v>3</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B28" s="59">
         <v>50</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C28" s="60">
+        <v>3.5087719298245619E-2</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E28" s="63">
         <f t="shared" si="2"/>
-        <v>3.5087719298245619E-2</v>
-      </c>
-      <c r="D27" s="33">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E27" s="34">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="17">
+      <c r="F28" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="59">
         <v>3</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B29" s="59">
         <v>60</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C29" s="60">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="D29" s="60">
+        <v>0.45</v>
+      </c>
+      <c r="E29" s="63">
         <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="D28" s="33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="59">
+        <v>3</v>
+      </c>
+      <c r="B30" s="59">
+        <v>70</v>
+      </c>
+      <c r="C30" s="60">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="D30" s="60">
+        <v>0.72</v>
+      </c>
+      <c r="E30" s="63">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="59">
+        <v>3</v>
+      </c>
+      <c r="B31" s="59">
+        <v>80</v>
+      </c>
+      <c r="C31" s="60">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D31" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="63">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="59">
+        <v>3</v>
+      </c>
+      <c r="B32" s="59">
+        <v>100</v>
+      </c>
+      <c r="C32" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="63">
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="E28" s="34">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="17">
+      <c r="F32" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="59">
         <v>3</v>
       </c>
-      <c r="B29" s="17">
-        <v>70</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="B33" s="59">
+        <v>1700</v>
+      </c>
+      <c r="C33" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D33" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="63">
         <f t="shared" si="2"/>
-        <v>0.23611111111111113</v>
-      </c>
-      <c r="D29" s="33">
-        <v>0.72</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="17">
-        <v>3</v>
-      </c>
-      <c r="B30" s="17">
-        <v>80</v>
-      </c>
-      <c r="C30" s="17">
-        <f>E30/D30</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D30" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="E30" s="34">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="17">
-        <v>3</v>
-      </c>
-      <c r="B31" s="17">
-        <v>100</v>
-      </c>
-      <c r="C31" s="17">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="E31" s="34">
-        <v>0.45</v>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -9737,33 +10286,36 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A5" sqref="A5:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="11" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="51">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -9773,42 +10325,45 @@
       <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="27" t="s">
+      <c r="N1" s="64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3">
@@ -9821,22 +10376,22 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="24">
         <v>0.8</v>
       </c>
-      <c r="H2" s="27">
-        <v>0</v>
-      </c>
-      <c r="I2" s="27">
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
         <v>0.7</v>
       </c>
-      <c r="J2" s="27">
-        <v>0</v>
-      </c>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="24">
+        <v>0</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1">
@@ -9845,125 +10400,104 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="35" customFormat="1">
-      <c r="A3" s="51" t="s">
+      <c r="N2" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="51">
         <f>_discounting_sheet!D19</f>
         <v>3049933.6077201287</v>
       </c>
-      <c r="D3" s="35">
-        <v>0</v>
-      </c>
-      <c r="E3" s="35">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="29">
         <v>0.97</v>
       </c>
-      <c r="H3" s="35">
-        <v>0</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29">
         <v>0.92</v>
       </c>
-      <c r="J3" s="35">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="29">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="35" customFormat="1">
-      <c r="A4" s="51" t="s">
+      <c r="L3" s="29">
+        <v>0</v>
+      </c>
+      <c r="M3" s="29">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="31">
         <f>_discounting_sheet!E19</f>
         <v>2734021264.1732774</v>
       </c>
-      <c r="D4" s="35">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="29">
         <v>0.72</v>
       </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
         <v>0.63</v>
       </c>
-      <c r="J4" s="35">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="35" customFormat="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" s="35" customFormat="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" s="35" customFormat="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="47"/>
-      <c r="C8" s="3"/>
-      <c r="F8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9975,14 +10509,14 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -9993,7 +10527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10004,7 +10538,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10015,7 +10549,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10026,7 +10560,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -10037,7 +10571,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10048,7 +10582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10059,7 +10593,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10070,7 +10604,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10081,7 +10615,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -10092,7 +10626,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -10103,7 +10637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -10114,7 +10648,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -10125,7 +10659,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -10136,7 +10670,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -10147,7 +10681,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -10158,7 +10692,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -10169,7 +10703,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -10180,7 +10714,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -10191,7 +10725,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -10202,7 +10736,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -10213,7 +10747,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -10224,7 +10758,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -10235,7 +10769,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -10246,7 +10780,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -10257,7 +10791,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -10268,7 +10802,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -10279,7 +10813,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -10290,7 +10824,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -10301,7 +10835,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -10312,7 +10846,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -10323,7 +10857,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -10334,7 +10868,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -10345,7 +10879,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -10356,7 +10890,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -10367,7 +10901,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -10378,7 +10912,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -10389,7 +10923,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -10400,7 +10934,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -10411,7 +10945,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -10422,7 +10956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -10433,7 +10967,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -10444,7 +10978,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -10455,7 +10989,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -10466,7 +11000,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -10477,7 +11011,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -10488,7 +11022,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -10499,7 +11033,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -10510,7 +11044,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -10521,7 +11055,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -10532,7 +11066,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -10543,7 +11077,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -10557,11 +11091,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10573,19 +11102,19 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -10595,21 +11124,21 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="22">
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -10617,7 +11146,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2030</v>
       </c>
@@ -10635,7 +11164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I6" s="1">
         <v>2016</v>
       </c>
@@ -10648,7 +11177,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -10664,8 +11193,8 @@
         <v>1319574000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="20">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="17">
         <f>B5/B4</f>
         <v>1.3194787630628726</v>
       </c>
@@ -10681,7 +11210,7 @@
         <v>1345965480000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I9" s="1">
         <v>2019</v>
       </c>
@@ -10694,7 +11223,7 @@
         <v>1372884789600</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I10" s="1">
         <v>2020</v>
       </c>
@@ -10707,15 +11236,15 @@
         <v>1400342485392</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <f>B8</f>
         <v>1.3194787630628726</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="1">
@@ -10730,7 +11259,7 @@
         <v>1428349335099.8401</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -10746,7 +11275,7 @@
         <v>1456916321801.8369</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -10767,7 +11296,7 @@
         <v>1486054648237.8738</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I14" s="1">
         <v>2024</v>
       </c>
@@ -10780,7 +11309,7 @@
         <v>1515775741202.6313</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I15" s="1">
         <v>2025</v>
       </c>
@@ -10793,7 +11322,7 @@
         <v>1546091256026.6841</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I16" s="1">
         <v>2026</v>
       </c>
@@ -10806,7 +11335,7 @@
         <v>1577013081147.2178</v>
       </c>
     </row>
-    <row r="17" spans="9:11">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I17" s="1">
         <v>2027</v>
       </c>
@@ -10819,7 +11348,7 @@
         <v>1608553342770.1621</v>
       </c>
     </row>
-    <row r="18" spans="9:11">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I18" s="1">
         <v>2028</v>
       </c>
@@ -10832,7 +11361,7 @@
         <v>1640724409625.5654</v>
       </c>
     </row>
-    <row r="19" spans="9:11">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I19" s="1">
         <v>2029</v>
       </c>
@@ -10845,7 +11374,7 @@
         <v>1673538897818.0767</v>
       </c>
     </row>
-    <row r="20" spans="9:11">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I20" s="1">
         <v>2030</v>
       </c>
@@ -10858,30 +11387,25 @@
         <v>1707009675774.4382</v>
       </c>
     </row>
-    <row r="21" spans="9:11">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J21" s="5"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="9:11">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J22" s="5"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="9:11">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J23" s="5"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="9:11">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J24" s="5"/>
       <c r="K24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10893,75 +11417,75 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="25">
         <f>B6*B7*B8</f>
         <v>0</v>
       </c>
@@ -10970,22 +11494,22 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -10997,8 +11521,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="3">
@@ -11009,7 +11533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -11018,27 +11542,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -11046,7 +11570,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -11057,7 +11581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -11069,22 +11593,22 @@
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -11095,7 +11619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -11106,27 +11630,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -11137,7 +11661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -11148,7 +11672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -11159,7 +11683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -11170,7 +11694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>58</v>
       </c>
@@ -11182,27 +11706,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -11213,7 +11737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -11224,7 +11748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -11236,8 +11760,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="1">
@@ -11247,7 +11771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -11259,7 +11783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -11273,11 +11797,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11285,61 +11804,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="15.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="43" customFormat="1" ht="38.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -11347,14 +11866,14 @@
         <f>discount!C16</f>
         <v>0.02</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="52">
         <v>18500000</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="46">
         <f>D$23*D26</f>
         <v>2933280.4538999996</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="46">
         <f>16932990000</f>
         <v>16932990000</v>
       </c>
@@ -11366,16 +11885,16 @@
         <f t="shared" si="0"/>
         <v>21872492.661265031</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="44">
         <f t="shared" si="0"/>
         <v>16946050036.25144</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="53"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="44"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="44"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -11383,32 +11902,32 @@
         <f>discount!C17</f>
         <v>0.02</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="52">
         <v>18500000</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="46">
         <f t="shared" ref="D4:D17" si="1">D$23*D$22</f>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="59">
+      <c r="E4" s="46"/>
+      <c r="F4" s="50">
         <f t="shared" si="0"/>
         <v>228444914.30094892</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="50">
         <f t="shared" si="0"/>
         <v>19317996.451512333</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="45">
         <f t="shared" si="0"/>
         <v>13321236.976468263</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="54"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="45"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
@@ -11416,32 +11935,32 @@
         <f>discount!C18</f>
         <v>0.02</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="52">
         <v>18500000</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="59">
+      <c r="E5" s="46"/>
+      <c r="F5" s="50">
         <f t="shared" si="0"/>
         <v>214143812.58696789</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="50">
         <f t="shared" si="0"/>
         <v>18108651.813620981</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="45">
         <f t="shared" si="0"/>
         <v>13587661.715997629</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="45"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
@@ -11449,32 +11968,32 @@
         <f>discount!C19</f>
         <v>0.02</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="52">
         <v>18500000</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="59">
+      <c r="E6" s="46"/>
+      <c r="F6" s="50">
         <f t="shared" si="0"/>
         <v>199556688.83870724</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="50">
         <f t="shared" si="0"/>
         <v>16875120.282971799</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="45">
         <f t="shared" si="0"/>
         <v>13859414.950317582</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="45"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -11482,32 +12001,32 @@
         <f>discount!C20</f>
         <v>0.02</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="52">
         <v>18500000</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="59">
+      <c r="E7" s="46"/>
+      <c r="F7" s="50">
         <f t="shared" si="0"/>
         <v>184677822.61548138</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="50">
         <f t="shared" si="0"/>
         <v>15616918.121709634</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="45">
         <f t="shared" si="0"/>
         <v>14136603.249323934</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="54"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7" s="45"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -11515,35 +12034,35 @@
         <f>discount!C21</f>
         <v>0.02</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="52">
         <v>18500000</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="46">
         <f>1293385*5.85</f>
         <v>7566302.25</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="50">
         <f t="shared" si="0"/>
         <v>169501379.06779101</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="50">
         <f t="shared" si="0"/>
         <v>14333551.917222228</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="45">
         <f t="shared" si="0"/>
         <v>14419335.314310413</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="54"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8" s="45"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2022</v>
       </c>
@@ -11551,32 +12070,32 @@
         <f>discount!C22</f>
         <v>0.02</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="52">
         <v>18500000</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="59">
+      <c r="E9" s="46"/>
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>154021406.64914683</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="50">
         <f t="shared" si="0"/>
         <v>13024518.388645072</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="45">
         <f t="shared" si="0"/>
         <v>6990093.7255966216</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="54"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="45"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2023</v>
       </c>
@@ -11584,32 +12103,32 @@
         <f>discount!C23</f>
         <v>0.02</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="52">
         <v>18500000</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="59">
+      <c r="E10" s="46"/>
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>138231834.78212976</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="50">
         <f t="shared" si="0"/>
         <v>11689304.189496372</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="45">
         <f t="shared" si="0"/>
         <v>7129895.6001085546</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="54"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="45"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -11617,32 +12136,32 @@
         <f>discount!C24</f>
         <v>0.02</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="52">
         <v>18500000</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="59">
+      <c r="E11" s="46"/>
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>122126471.47777234</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="50">
         <f t="shared" si="0"/>
         <v>10327385.706364699</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="45">
         <f t="shared" si="0"/>
         <v>7272493.512110726</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="54"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="45"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -11650,32 +12169,32 @@
         <f>discount!C25</f>
         <v>0.02</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="52">
         <v>18500000</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="59">
+      <c r="E12" s="46"/>
+      <c r="F12" s="50">
         <f t="shared" si="0"/>
         <v>105699000.90732779</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="50">
         <f t="shared" si="0"/>
         <v>8938228.8535703942</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="45">
         <f t="shared" si="0"/>
         <v>7417943.3823529407</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="54"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="45"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2026</v>
       </c>
@@ -11683,35 +12202,35 @@
         <f>discount!C26</f>
         <v>0.02</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="52">
         <v>18500000</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="46">
         <f>1293385*5.85</f>
         <v>7566302.25</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="50">
         <f t="shared" si="0"/>
         <v>88942980.925474346</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="50">
         <f t="shared" si="0"/>
         <v>7521288.8637202019</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="45">
         <f t="shared" si="0"/>
         <v>7566302.25</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="54"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="45"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2027</v>
       </c>
@@ -11719,32 +12238,32 @@
         <f>discount!C27</f>
         <v>0.02</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="52">
         <v>18500000</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="59">
+      <c r="E14" s="46"/>
+      <c r="F14" s="50">
         <f t="shared" si="0"/>
         <v>71851840.543983832</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="50">
         <f t="shared" si="0"/>
         <v>6076010.0740730055</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="45"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2028</v>
       </c>
@@ -11752,32 +12271,32 @@
         <f>discount!C28</f>
         <v>0.02</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="52">
         <v>18500000</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="59">
+      <c r="E15" s="46"/>
+      <c r="F15" s="50">
         <f t="shared" si="0"/>
         <v>54418877.35486351</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="50">
         <f t="shared" si="0"/>
         <v>4601825.708632865</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="54"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="45"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2029</v>
       </c>
@@ -11785,32 +12304,32 @@
         <f>discount!C29</f>
         <v>0.02</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="52">
         <v>18500000</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="59">
+      <c r="E16" s="46"/>
+      <c r="F16" s="50">
         <f t="shared" si="0"/>
         <v>36637254.901960783</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="50">
         <f t="shared" si="0"/>
         <v>3098157.6558839222</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="54"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="J16" s="45"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>2030</v>
       </c>
@@ -11818,32 +12337,32 @@
         <f>discount!C30</f>
         <v>0.02</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="52">
         <v>18500000</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="46">
         <f t="shared" si="1"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="59">
+      <c r="E17" s="46"/>
+      <c r="F17" s="50">
         <f>C17+F18/(1+$B18)</f>
         <v>18500000</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="50">
         <f>D17+G18/(1+$B18)</f>
         <v>1564416.2420800002</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="45">
         <f>E17+H18/(1+$B18)</f>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="54"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="J17" s="45"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2031</v>
       </c>
@@ -11851,133 +12370,128 @@
         <f>discount!C31</f>
         <v>0.02</v>
       </c>
-      <c r="C18" s="63">
-        <v>0</v>
-      </c>
-      <c r="D18" s="64">
-        <v>0</v>
-      </c>
-      <c r="E18" s="64">
-        <v>0</v>
-      </c>
-      <c r="F18" s="59">
-        <v>0</v>
-      </c>
-      <c r="G18" s="59">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
+      <c r="C18" s="54">
+        <v>0</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0</v>
+      </c>
+      <c r="G18" s="50">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="54"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" s="56" t="s">
+      <c r="J18" s="45"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="48">
         <f>D20*D21*D24*F3</f>
         <v>33809771.958263576</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="48">
         <f>D21*D20*D24*G3</f>
         <v>3049933.6077201287</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="49">
         <f>D20*D24*D25*H3</f>
         <v>2734021264.1732774</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="54"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="C20" s="27" t="s">
+      <c r="J19" s="45"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="24">
         <v>0.71908499999999997</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="54"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="54"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="C21" s="27" t="s">
+      <c r="J20" s="45"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="24">
         <f>165107.44/227420</f>
         <v>0.72600228651833609</v>
       </c>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="C22" s="27" t="s">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C22" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="24">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="C23" s="27" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C23" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="53">
         <v>19555203026</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="C24" s="27" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C24" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="24">
         <v>0.2671</v>
       </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="C25" s="27" t="s">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C25" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="24">
         <v>0.84</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="C26" s="27" t="s">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C26" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="24">
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>